--- a/horas_trimestrales_promedio.xlsx
+++ b/horas_trimestrales_promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A63D6CB-A9E4-426A-AAF4-13DCF2E44FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE89CC25-573C-49C0-AAF4-4F9F9576BC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,6 +65,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -103,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,11 +129,22 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -155,6 +167,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1810,8 @@
         <v>43525</v>
       </c>
       <c r="D94" s="7">
-        <v>37.118829000000005</v>
+        <f>(B243+B244+B245)/3</f>
+        <v>36.91255266666667</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,7 +1825,8 @@
         <v>43617</v>
       </c>
       <c r="D95" s="7">
-        <v>44.8</v>
+        <f>(B246+B247+B248)/3</f>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,7 +1840,8 @@
         <v>43709</v>
       </c>
       <c r="D96" s="7">
-        <v>44.8</v>
+        <f>(B249+B250+B251)/3</f>
+        <v>37.133333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,7 +1855,8 @@
         <v>43800</v>
       </c>
       <c r="D97" s="10">
-        <v>44.8</v>
+        <f>(B252+B253+B254)/3</f>
+        <v>36.1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,6 +3034,86 @@
       </c>
       <c r="B244" s="1">
         <v>36.412640000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="5">
+        <v>43525</v>
+      </c>
+      <c r="B245" s="12">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="5">
+        <v>43556</v>
+      </c>
+      <c r="B246" s="12">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="5">
+        <v>43586</v>
+      </c>
+      <c r="B247" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
+        <v>43617</v>
+      </c>
+      <c r="B248" s="12">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="5">
+        <v>43647</v>
+      </c>
+      <c r="B249" s="12">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="5">
+        <v>43678</v>
+      </c>
+      <c r="B250" s="12">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="5">
+        <v>43709</v>
+      </c>
+      <c r="B251" s="12">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="5">
+        <v>43739</v>
+      </c>
+      <c r="B252" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B253" s="12">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="5">
+        <v>43800</v>
+      </c>
+      <c r="B254" s="12">
+        <v>36.799999999999997</v>
       </c>
     </row>
   </sheetData>
